--- a/src/main/java/com/inetBanking/qa/TestData/loginData.xlsx
+++ b/src/main/java/com/inetBanking/qa/TestData/loginData.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +45,45 @@
   </si>
   <si>
     <t>sAdamAU</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pinno</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>gachibowli</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>500032</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
 </sst>
 </file>
@@ -89,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,4 +456,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>